--- a/wiki/qadnote/initialsteps.xlsx
+++ b/wiki/qadnote/initialsteps.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-4410" yWindow="150" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data Build - WHShowa" sheetId="4" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Build - WHShowa'!$A$8:$I$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Data Build - WHShowa'!$A:$J</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="461">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -946,14 +949,1381 @@
   </si>
   <si>
     <t>运行 5.5.1.18 计划订单 MRP 百分比查询并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态数据导入安排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Validation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.2.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用代码维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mgcodemt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位、ABC类等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝广州工场现有内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mccumt.p</t>
+  </si>
+  <si>
+    <r>
+      <t>运行2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>货币浏览</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>维护：C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NY，JPY，USD</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>36.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>域账户控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建立本位币为C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NY，会计单位为1000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计单位与广州不一致，如右图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存状态代码维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 状态报表并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:YYN,NYN,NNN,YNN</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料状态代码维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppstmt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行1.1.7 物料状态代码报表并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立AC,DC,ENG,ECN可用状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>计量单位维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppummt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.14 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计量单位查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行1.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 地点报表并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立10000的公司地点，本位币CNY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一致，维护内容如图右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.14.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家代码维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立JPN，CHN，TW的国家代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税类型维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2.13.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2查询菜单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立VAT/Non-Tax，VIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13.1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税收类别维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2.13.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询菜单并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立0,3,4,5,6,7,10,13,16,17纳税类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13.1.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税用途维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2.13.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10查询菜单并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立I,E，P，S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.13.1.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税基维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2.13.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14查询菜单并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立100%全额纳税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2.13.3.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳税区域维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2.13.3.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4查询菜单并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立CHINA中国大陆区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2.13.5.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳税环境维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2.13.5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询菜单并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立CNY中国纳税区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2.13.13.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2.13.13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询菜单并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立I,E，P，S纳税税率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.13.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机设置维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.13.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立page,terminal,printer输出方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>25.3.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计单位维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25.3.1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立1000的主会计单位代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立10000的公司地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6.14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立01，02，03，04的银行代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不一致，只有01，招商银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户分组维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.3.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从85至167导入到QAD系统，文本为25.3.7.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.17.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本要素维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sccemt01.p</t>
+  </si>
+  <si>
+    <r>
+      <t>运行3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.17.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入物料，人工，附加，开销，转包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总账日历维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.3.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立会计期间为当月26至下月25日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.3.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.3.14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工维护账户代码截止到11月15日完成1.2.1所需账户代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂缓设置，财务模块暂时不上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.19.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adcrtmt.p</t>
+  </si>
+  <si>
+    <r>
+      <t>运行2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.19.1查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算方式维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iclomt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行1.1.20 库位报表并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据从168至214，无报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经提交该表格供导入使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料数据维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发、技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行1.5.2 物料数据报表并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据19926至23292，无报错,导入数据重复的部分已修改描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料库存数据维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppptmt01.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行1.5.3 物料库存数据报表并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据31465至34827，无报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1.4.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料计划维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppptmt02.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行1.5.4物料库存数据报表并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据34828至38034，无报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>14.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>运行1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工录入14个部门分组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表方式提交导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>13.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品结构维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bmpsmt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行13.8.1 产品结构报表 - 按物料并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入数据23293至31464，无报错；已导出数据和原始文档校对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>工作中心维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行14.6 工作中心查询并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>导入数据从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>38035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>38072,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无报错</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>14.13.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺流程维护（基于费率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIM/Manual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行14.13.3 工艺流程查询并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>38089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>39558</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无报错</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>18.22.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产线维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>splnmt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行18.22.1.4 生产线报表并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入39559至40703无报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据录入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>1.10.1.1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价目表维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pppimt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行1.10.2.3 价目表报表并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1.10.2.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pppcmt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入从40962至41072无报错</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入从41114至41442无报错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adcsmt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行 2.1.4 客户主报表并确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户录入了2个客户C2000001和C2000002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经提交该表格供导入使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>advnmt.p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.3.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>供应商查询并确认</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>导入从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>41075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>41113</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无报错</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,6 +2370,42 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1062,13 +2468,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,18 +2569,382 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_YFJC-WH-HADF-DB-Build-Steps" xfId="1"/>
+    <cellStyle name="样式 1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11372850" y="819150"/>
+          <a:ext cx="5667375" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11258550" y="1552575"/>
+          <a:ext cx="3743325" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="21622"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11258550" y="3400425"/>
+          <a:ext cx="1838325" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11382375" y="3724275"/>
+          <a:ext cx="6267450" cy="2314575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1247,6 +3018,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1281,6 +3053,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1456,15 +3229,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.625" style="25" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="25" customWidth="1"/>
@@ -1477,7 +3250,7 @@
     <col min="10" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="23" customFormat="1">
+    <row r="1" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>76</v>
       </c>
@@ -1491,7 +3264,7 @@
       <c r="I1" s="21"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="49.5">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,7 +3299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="33">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -1541,7 +3314,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1">
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -1554,7 +3327,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="18" customFormat="1">
+    <row r="5" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -1582,7 +3355,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:11" s="18" customFormat="1">
+    <row r="6" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
@@ -1610,7 +3383,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1">
+    <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>25</v>
       </c>
@@ -1638,7 +3411,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1">
+    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
@@ -1666,7 +3439,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:11" s="18" customFormat="1">
+    <row r="9" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -1692,7 +3465,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -1705,7 +3478,7 @@
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" ht="33">
+    <row r="11" spans="1:11" s="18" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
         <v>74</v>
       </c>
@@ -1735,7 +3508,7 @@
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:11" s="18" customFormat="1" ht="33">
+    <row r="12" spans="1:11" s="18" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
         <v>49</v>
       </c>
@@ -1765,7 +3538,7 @@
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="18" customFormat="1">
+    <row r="13" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +3568,7 @@
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:11" s="18" customFormat="1">
+    <row r="14" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>59</v>
       </c>
@@ -1825,7 +3598,7 @@
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:11" s="18" customFormat="1">
+    <row r="15" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
         <v>64</v>
       </c>
@@ -1855,7 +3628,7 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:11" s="18" customFormat="1">
+    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
         <v>69</v>
       </c>
@@ -1885,7 +3658,7 @@
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:11" s="18" customFormat="1">
+    <row r="17" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
         <v>75</v>
       </c>
@@ -1915,7 +3688,7 @@
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="18" customFormat="1" ht="33">
+    <row r="18" spans="1:11" s="18" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
         <v>77</v>
       </c>
@@ -1941,7 +3714,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -1954,7 +3727,7 @@
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
         <v>84</v>
       </c>
@@ -1983,7 +3756,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
         <v>97</v>
       </c>
@@ -2012,12 +3785,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -2030,7 +3803,7 @@
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
@@ -2061,7 +3834,7 @@
       <c r="J24" s="13"/>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:11" ht="33">
+    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
         <v>95</v>
       </c>
@@ -2092,7 +3865,7 @@
       <c r="J25" s="13"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" ht="33">
+    <row r="26" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
         <v>96</v>
       </c>
@@ -2125,7 +3898,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="33">
+    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
         <v>99</v>
       </c>
@@ -2156,7 +3929,7 @@
       <c r="J27" s="13"/>
       <c r="K27" s="30"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
         <v>100</v>
       </c>
@@ -2185,7 +3958,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
@@ -2216,7 +3989,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="18"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
         <v>148</v>
       </c>
@@ -2247,7 +4020,7 @@
       <c r="J30" s="13"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
         <v>149</v>
       </c>
@@ -2278,7 +4051,7 @@
       <c r="J31" s="13"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
         <v>150</v>
       </c>
@@ -2307,7 +4080,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="18"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -2320,7 +4093,7 @@
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="26">
         <v>26</v>
       </c>
@@ -2347,7 +4120,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="26">
         <v>27</v>
       </c>
@@ -2376,7 +4149,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="26">
         <v>28</v>
       </c>
@@ -2405,7 +4178,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="26">
         <v>29</v>
       </c>
@@ -2432,7 +4205,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="26">
         <v>30</v>
       </c>
@@ -2461,7 +4234,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="26">
         <v>31</v>
       </c>
@@ -2488,7 +4261,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="29"/>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
@@ -2501,7 +4274,7 @@
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="26">
         <v>32</v>
       </c>
@@ -2527,7 +4300,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="26">
         <v>33</v>
       </c>
@@ -2553,7 +4326,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="26">
         <v>34</v>
       </c>
@@ -2579,7 +4352,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="33">
+    <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A44" s="26">
         <v>35</v>
       </c>
@@ -2605,7 +4378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
@@ -2618,7 +4391,7 @@
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="26">
         <v>36</v>
       </c>
@@ -2644,7 +4417,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="26">
         <v>37</v>
       </c>
@@ -2670,7 +4443,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="33">
+    <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A48" s="26">
         <v>38</v>
       </c>
@@ -2696,7 +4469,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2709,7 +4482,7 @@
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="26">
         <v>39</v>
       </c>
@@ -2735,12 +4508,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="26">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -2753,7 +4526,7 @@
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="26">
         <v>41</v>
       </c>
@@ -2779,7 +4552,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="26">
         <v>42</v>
       </c>
@@ -2805,7 +4578,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="26">
         <v>43</v>
       </c>
@@ -2831,7 +4604,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="26">
         <v>44</v>
       </c>
@@ -2857,7 +4630,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
@@ -2870,7 +4643,7 @@
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="26">
         <v>45</v>
       </c>
@@ -2896,7 +4669,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="26">
         <v>46</v>
       </c>
@@ -2922,7 +4695,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="26">
         <v>47</v>
       </c>
@@ -2948,7 +4721,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="33">
+    <row r="61" spans="1:11" ht="33" x14ac:dyDescent="0.15">
       <c r="A61" s="26">
         <v>48</v>
       </c>
@@ -2974,7 +4747,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
@@ -2998,31 +4771,2052 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" style="53" customWidth="1"/>
+    <col min="9" max="9" width="26.75" style="53" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="44" customWidth="1"/>
+    <col min="11" max="256" width="8" style="51"/>
+    <col min="257" max="257" width="5.125" style="51" customWidth="1"/>
+    <col min="258" max="258" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.125" style="51" customWidth="1"/>
+    <col min="262" max="262" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="29" style="51" customWidth="1"/>
+    <col min="265" max="265" width="26.75" style="51" customWidth="1"/>
+    <col min="266" max="266" width="27.625" style="51" customWidth="1"/>
+    <col min="267" max="512" width="8" style="51"/>
+    <col min="513" max="513" width="5.125" style="51" customWidth="1"/>
+    <col min="514" max="514" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.125" style="51" customWidth="1"/>
+    <col min="518" max="518" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="29" style="51" customWidth="1"/>
+    <col min="521" max="521" width="26.75" style="51" customWidth="1"/>
+    <col min="522" max="522" width="27.625" style="51" customWidth="1"/>
+    <col min="523" max="768" width="8" style="51"/>
+    <col min="769" max="769" width="5.125" style="51" customWidth="1"/>
+    <col min="770" max="770" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="9.125" style="51" customWidth="1"/>
+    <col min="774" max="774" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="29" style="51" customWidth="1"/>
+    <col min="777" max="777" width="26.75" style="51" customWidth="1"/>
+    <col min="778" max="778" width="27.625" style="51" customWidth="1"/>
+    <col min="779" max="1024" width="8" style="51"/>
+    <col min="1025" max="1025" width="5.125" style="51" customWidth="1"/>
+    <col min="1026" max="1026" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="9.125" style="51" customWidth="1"/>
+    <col min="1030" max="1030" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="29" style="51" customWidth="1"/>
+    <col min="1033" max="1033" width="26.75" style="51" customWidth="1"/>
+    <col min="1034" max="1034" width="27.625" style="51" customWidth="1"/>
+    <col min="1035" max="1280" width="8" style="51"/>
+    <col min="1281" max="1281" width="5.125" style="51" customWidth="1"/>
+    <col min="1282" max="1282" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="9.125" style="51" customWidth="1"/>
+    <col min="1286" max="1286" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="29" style="51" customWidth="1"/>
+    <col min="1289" max="1289" width="26.75" style="51" customWidth="1"/>
+    <col min="1290" max="1290" width="27.625" style="51" customWidth="1"/>
+    <col min="1291" max="1536" width="8" style="51"/>
+    <col min="1537" max="1537" width="5.125" style="51" customWidth="1"/>
+    <col min="1538" max="1538" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="9.125" style="51" customWidth="1"/>
+    <col min="1542" max="1542" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="29" style="51" customWidth="1"/>
+    <col min="1545" max="1545" width="26.75" style="51" customWidth="1"/>
+    <col min="1546" max="1546" width="27.625" style="51" customWidth="1"/>
+    <col min="1547" max="1792" width="8" style="51"/>
+    <col min="1793" max="1793" width="5.125" style="51" customWidth="1"/>
+    <col min="1794" max="1794" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="9.125" style="51" customWidth="1"/>
+    <col min="1798" max="1798" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="29" style="51" customWidth="1"/>
+    <col min="1801" max="1801" width="26.75" style="51" customWidth="1"/>
+    <col min="1802" max="1802" width="27.625" style="51" customWidth="1"/>
+    <col min="1803" max="2048" width="8" style="51"/>
+    <col min="2049" max="2049" width="5.125" style="51" customWidth="1"/>
+    <col min="2050" max="2050" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="9.125" style="51" customWidth="1"/>
+    <col min="2054" max="2054" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="29" style="51" customWidth="1"/>
+    <col min="2057" max="2057" width="26.75" style="51" customWidth="1"/>
+    <col min="2058" max="2058" width="27.625" style="51" customWidth="1"/>
+    <col min="2059" max="2304" width="8" style="51"/>
+    <col min="2305" max="2305" width="5.125" style="51" customWidth="1"/>
+    <col min="2306" max="2306" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="9.125" style="51" customWidth="1"/>
+    <col min="2310" max="2310" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="29" style="51" customWidth="1"/>
+    <col min="2313" max="2313" width="26.75" style="51" customWidth="1"/>
+    <col min="2314" max="2314" width="27.625" style="51" customWidth="1"/>
+    <col min="2315" max="2560" width="8" style="51"/>
+    <col min="2561" max="2561" width="5.125" style="51" customWidth="1"/>
+    <col min="2562" max="2562" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="9.125" style="51" customWidth="1"/>
+    <col min="2566" max="2566" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="29" style="51" customWidth="1"/>
+    <col min="2569" max="2569" width="26.75" style="51" customWidth="1"/>
+    <col min="2570" max="2570" width="27.625" style="51" customWidth="1"/>
+    <col min="2571" max="2816" width="8" style="51"/>
+    <col min="2817" max="2817" width="5.125" style="51" customWidth="1"/>
+    <col min="2818" max="2818" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="9.125" style="51" customWidth="1"/>
+    <col min="2822" max="2822" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="29" style="51" customWidth="1"/>
+    <col min="2825" max="2825" width="26.75" style="51" customWidth="1"/>
+    <col min="2826" max="2826" width="27.625" style="51" customWidth="1"/>
+    <col min="2827" max="3072" width="8" style="51"/>
+    <col min="3073" max="3073" width="5.125" style="51" customWidth="1"/>
+    <col min="3074" max="3074" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="9.125" style="51" customWidth="1"/>
+    <col min="3078" max="3078" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="29" style="51" customWidth="1"/>
+    <col min="3081" max="3081" width="26.75" style="51" customWidth="1"/>
+    <col min="3082" max="3082" width="27.625" style="51" customWidth="1"/>
+    <col min="3083" max="3328" width="8" style="51"/>
+    <col min="3329" max="3329" width="5.125" style="51" customWidth="1"/>
+    <col min="3330" max="3330" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="9.125" style="51" customWidth="1"/>
+    <col min="3334" max="3334" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="29" style="51" customWidth="1"/>
+    <col min="3337" max="3337" width="26.75" style="51" customWidth="1"/>
+    <col min="3338" max="3338" width="27.625" style="51" customWidth="1"/>
+    <col min="3339" max="3584" width="8" style="51"/>
+    <col min="3585" max="3585" width="5.125" style="51" customWidth="1"/>
+    <col min="3586" max="3586" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="9.125" style="51" customWidth="1"/>
+    <col min="3590" max="3590" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="29" style="51" customWidth="1"/>
+    <col min="3593" max="3593" width="26.75" style="51" customWidth="1"/>
+    <col min="3594" max="3594" width="27.625" style="51" customWidth="1"/>
+    <col min="3595" max="3840" width="8" style="51"/>
+    <col min="3841" max="3841" width="5.125" style="51" customWidth="1"/>
+    <col min="3842" max="3842" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="9.125" style="51" customWidth="1"/>
+    <col min="3846" max="3846" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="29" style="51" customWidth="1"/>
+    <col min="3849" max="3849" width="26.75" style="51" customWidth="1"/>
+    <col min="3850" max="3850" width="27.625" style="51" customWidth="1"/>
+    <col min="3851" max="4096" width="8" style="51"/>
+    <col min="4097" max="4097" width="5.125" style="51" customWidth="1"/>
+    <col min="4098" max="4098" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="9.125" style="51" customWidth="1"/>
+    <col min="4102" max="4102" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="29" style="51" customWidth="1"/>
+    <col min="4105" max="4105" width="26.75" style="51" customWidth="1"/>
+    <col min="4106" max="4106" width="27.625" style="51" customWidth="1"/>
+    <col min="4107" max="4352" width="8" style="51"/>
+    <col min="4353" max="4353" width="5.125" style="51" customWidth="1"/>
+    <col min="4354" max="4354" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="9.125" style="51" customWidth="1"/>
+    <col min="4358" max="4358" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="29" style="51" customWidth="1"/>
+    <col min="4361" max="4361" width="26.75" style="51" customWidth="1"/>
+    <col min="4362" max="4362" width="27.625" style="51" customWidth="1"/>
+    <col min="4363" max="4608" width="8" style="51"/>
+    <col min="4609" max="4609" width="5.125" style="51" customWidth="1"/>
+    <col min="4610" max="4610" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="9.125" style="51" customWidth="1"/>
+    <col min="4614" max="4614" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="29" style="51" customWidth="1"/>
+    <col min="4617" max="4617" width="26.75" style="51" customWidth="1"/>
+    <col min="4618" max="4618" width="27.625" style="51" customWidth="1"/>
+    <col min="4619" max="4864" width="8" style="51"/>
+    <col min="4865" max="4865" width="5.125" style="51" customWidth="1"/>
+    <col min="4866" max="4866" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="9.125" style="51" customWidth="1"/>
+    <col min="4870" max="4870" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="29" style="51" customWidth="1"/>
+    <col min="4873" max="4873" width="26.75" style="51" customWidth="1"/>
+    <col min="4874" max="4874" width="27.625" style="51" customWidth="1"/>
+    <col min="4875" max="5120" width="8" style="51"/>
+    <col min="5121" max="5121" width="5.125" style="51" customWidth="1"/>
+    <col min="5122" max="5122" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="9.125" style="51" customWidth="1"/>
+    <col min="5126" max="5126" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="29" style="51" customWidth="1"/>
+    <col min="5129" max="5129" width="26.75" style="51" customWidth="1"/>
+    <col min="5130" max="5130" width="27.625" style="51" customWidth="1"/>
+    <col min="5131" max="5376" width="8" style="51"/>
+    <col min="5377" max="5377" width="5.125" style="51" customWidth="1"/>
+    <col min="5378" max="5378" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="9.125" style="51" customWidth="1"/>
+    <col min="5382" max="5382" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="29" style="51" customWidth="1"/>
+    <col min="5385" max="5385" width="26.75" style="51" customWidth="1"/>
+    <col min="5386" max="5386" width="27.625" style="51" customWidth="1"/>
+    <col min="5387" max="5632" width="8" style="51"/>
+    <col min="5633" max="5633" width="5.125" style="51" customWidth="1"/>
+    <col min="5634" max="5634" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="9.125" style="51" customWidth="1"/>
+    <col min="5638" max="5638" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="29" style="51" customWidth="1"/>
+    <col min="5641" max="5641" width="26.75" style="51" customWidth="1"/>
+    <col min="5642" max="5642" width="27.625" style="51" customWidth="1"/>
+    <col min="5643" max="5888" width="8" style="51"/>
+    <col min="5889" max="5889" width="5.125" style="51" customWidth="1"/>
+    <col min="5890" max="5890" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="9.125" style="51" customWidth="1"/>
+    <col min="5894" max="5894" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="29" style="51" customWidth="1"/>
+    <col min="5897" max="5897" width="26.75" style="51" customWidth="1"/>
+    <col min="5898" max="5898" width="27.625" style="51" customWidth="1"/>
+    <col min="5899" max="6144" width="8" style="51"/>
+    <col min="6145" max="6145" width="5.125" style="51" customWidth="1"/>
+    <col min="6146" max="6146" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="9.125" style="51" customWidth="1"/>
+    <col min="6150" max="6150" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="29" style="51" customWidth="1"/>
+    <col min="6153" max="6153" width="26.75" style="51" customWidth="1"/>
+    <col min="6154" max="6154" width="27.625" style="51" customWidth="1"/>
+    <col min="6155" max="6400" width="8" style="51"/>
+    <col min="6401" max="6401" width="5.125" style="51" customWidth="1"/>
+    <col min="6402" max="6402" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="9.125" style="51" customWidth="1"/>
+    <col min="6406" max="6406" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="29" style="51" customWidth="1"/>
+    <col min="6409" max="6409" width="26.75" style="51" customWidth="1"/>
+    <col min="6410" max="6410" width="27.625" style="51" customWidth="1"/>
+    <col min="6411" max="6656" width="8" style="51"/>
+    <col min="6657" max="6657" width="5.125" style="51" customWidth="1"/>
+    <col min="6658" max="6658" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="9.125" style="51" customWidth="1"/>
+    <col min="6662" max="6662" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="29" style="51" customWidth="1"/>
+    <col min="6665" max="6665" width="26.75" style="51" customWidth="1"/>
+    <col min="6666" max="6666" width="27.625" style="51" customWidth="1"/>
+    <col min="6667" max="6912" width="8" style="51"/>
+    <col min="6913" max="6913" width="5.125" style="51" customWidth="1"/>
+    <col min="6914" max="6914" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="9.125" style="51" customWidth="1"/>
+    <col min="6918" max="6918" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="29" style="51" customWidth="1"/>
+    <col min="6921" max="6921" width="26.75" style="51" customWidth="1"/>
+    <col min="6922" max="6922" width="27.625" style="51" customWidth="1"/>
+    <col min="6923" max="7168" width="8" style="51"/>
+    <col min="7169" max="7169" width="5.125" style="51" customWidth="1"/>
+    <col min="7170" max="7170" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="9.125" style="51" customWidth="1"/>
+    <col min="7174" max="7174" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="29" style="51" customWidth="1"/>
+    <col min="7177" max="7177" width="26.75" style="51" customWidth="1"/>
+    <col min="7178" max="7178" width="27.625" style="51" customWidth="1"/>
+    <col min="7179" max="7424" width="8" style="51"/>
+    <col min="7425" max="7425" width="5.125" style="51" customWidth="1"/>
+    <col min="7426" max="7426" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="9.125" style="51" customWidth="1"/>
+    <col min="7430" max="7430" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="29" style="51" customWidth="1"/>
+    <col min="7433" max="7433" width="26.75" style="51" customWidth="1"/>
+    <col min="7434" max="7434" width="27.625" style="51" customWidth="1"/>
+    <col min="7435" max="7680" width="8" style="51"/>
+    <col min="7681" max="7681" width="5.125" style="51" customWidth="1"/>
+    <col min="7682" max="7682" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="9.125" style="51" customWidth="1"/>
+    <col min="7686" max="7686" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="29" style="51" customWidth="1"/>
+    <col min="7689" max="7689" width="26.75" style="51" customWidth="1"/>
+    <col min="7690" max="7690" width="27.625" style="51" customWidth="1"/>
+    <col min="7691" max="7936" width="8" style="51"/>
+    <col min="7937" max="7937" width="5.125" style="51" customWidth="1"/>
+    <col min="7938" max="7938" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="9.125" style="51" customWidth="1"/>
+    <col min="7942" max="7942" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="29" style="51" customWidth="1"/>
+    <col min="7945" max="7945" width="26.75" style="51" customWidth="1"/>
+    <col min="7946" max="7946" width="27.625" style="51" customWidth="1"/>
+    <col min="7947" max="8192" width="8" style="51"/>
+    <col min="8193" max="8193" width="5.125" style="51" customWidth="1"/>
+    <col min="8194" max="8194" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="9.125" style="51" customWidth="1"/>
+    <col min="8198" max="8198" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="29" style="51" customWidth="1"/>
+    <col min="8201" max="8201" width="26.75" style="51" customWidth="1"/>
+    <col min="8202" max="8202" width="27.625" style="51" customWidth="1"/>
+    <col min="8203" max="8448" width="8" style="51"/>
+    <col min="8449" max="8449" width="5.125" style="51" customWidth="1"/>
+    <col min="8450" max="8450" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="9.125" style="51" customWidth="1"/>
+    <col min="8454" max="8454" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="29" style="51" customWidth="1"/>
+    <col min="8457" max="8457" width="26.75" style="51" customWidth="1"/>
+    <col min="8458" max="8458" width="27.625" style="51" customWidth="1"/>
+    <col min="8459" max="8704" width="8" style="51"/>
+    <col min="8705" max="8705" width="5.125" style="51" customWidth="1"/>
+    <col min="8706" max="8706" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="9.125" style="51" customWidth="1"/>
+    <col min="8710" max="8710" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="29" style="51" customWidth="1"/>
+    <col min="8713" max="8713" width="26.75" style="51" customWidth="1"/>
+    <col min="8714" max="8714" width="27.625" style="51" customWidth="1"/>
+    <col min="8715" max="8960" width="8" style="51"/>
+    <col min="8961" max="8961" width="5.125" style="51" customWidth="1"/>
+    <col min="8962" max="8962" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="9.125" style="51" customWidth="1"/>
+    <col min="8966" max="8966" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="29" style="51" customWidth="1"/>
+    <col min="8969" max="8969" width="26.75" style="51" customWidth="1"/>
+    <col min="8970" max="8970" width="27.625" style="51" customWidth="1"/>
+    <col min="8971" max="9216" width="8" style="51"/>
+    <col min="9217" max="9217" width="5.125" style="51" customWidth="1"/>
+    <col min="9218" max="9218" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="9.125" style="51" customWidth="1"/>
+    <col min="9222" max="9222" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="29" style="51" customWidth="1"/>
+    <col min="9225" max="9225" width="26.75" style="51" customWidth="1"/>
+    <col min="9226" max="9226" width="27.625" style="51" customWidth="1"/>
+    <col min="9227" max="9472" width="8" style="51"/>
+    <col min="9473" max="9473" width="5.125" style="51" customWidth="1"/>
+    <col min="9474" max="9474" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="9.125" style="51" customWidth="1"/>
+    <col min="9478" max="9478" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="29" style="51" customWidth="1"/>
+    <col min="9481" max="9481" width="26.75" style="51" customWidth="1"/>
+    <col min="9482" max="9482" width="27.625" style="51" customWidth="1"/>
+    <col min="9483" max="9728" width="8" style="51"/>
+    <col min="9729" max="9729" width="5.125" style="51" customWidth="1"/>
+    <col min="9730" max="9730" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="9.125" style="51" customWidth="1"/>
+    <col min="9734" max="9734" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="29" style="51" customWidth="1"/>
+    <col min="9737" max="9737" width="26.75" style="51" customWidth="1"/>
+    <col min="9738" max="9738" width="27.625" style="51" customWidth="1"/>
+    <col min="9739" max="9984" width="8" style="51"/>
+    <col min="9985" max="9985" width="5.125" style="51" customWidth="1"/>
+    <col min="9986" max="9986" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="9.125" style="51" customWidth="1"/>
+    <col min="9990" max="9990" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="29" style="51" customWidth="1"/>
+    <col min="9993" max="9993" width="26.75" style="51" customWidth="1"/>
+    <col min="9994" max="9994" width="27.625" style="51" customWidth="1"/>
+    <col min="9995" max="10240" width="8" style="51"/>
+    <col min="10241" max="10241" width="5.125" style="51" customWidth="1"/>
+    <col min="10242" max="10242" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="9.125" style="51" customWidth="1"/>
+    <col min="10246" max="10246" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="29" style="51" customWidth="1"/>
+    <col min="10249" max="10249" width="26.75" style="51" customWidth="1"/>
+    <col min="10250" max="10250" width="27.625" style="51" customWidth="1"/>
+    <col min="10251" max="10496" width="8" style="51"/>
+    <col min="10497" max="10497" width="5.125" style="51" customWidth="1"/>
+    <col min="10498" max="10498" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="9.125" style="51" customWidth="1"/>
+    <col min="10502" max="10502" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="29" style="51" customWidth="1"/>
+    <col min="10505" max="10505" width="26.75" style="51" customWidth="1"/>
+    <col min="10506" max="10506" width="27.625" style="51" customWidth="1"/>
+    <col min="10507" max="10752" width="8" style="51"/>
+    <col min="10753" max="10753" width="5.125" style="51" customWidth="1"/>
+    <col min="10754" max="10754" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="9.125" style="51" customWidth="1"/>
+    <col min="10758" max="10758" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="29" style="51" customWidth="1"/>
+    <col min="10761" max="10761" width="26.75" style="51" customWidth="1"/>
+    <col min="10762" max="10762" width="27.625" style="51" customWidth="1"/>
+    <col min="10763" max="11008" width="8" style="51"/>
+    <col min="11009" max="11009" width="5.125" style="51" customWidth="1"/>
+    <col min="11010" max="11010" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="9.125" style="51" customWidth="1"/>
+    <col min="11014" max="11014" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="29" style="51" customWidth="1"/>
+    <col min="11017" max="11017" width="26.75" style="51" customWidth="1"/>
+    <col min="11018" max="11018" width="27.625" style="51" customWidth="1"/>
+    <col min="11019" max="11264" width="8" style="51"/>
+    <col min="11265" max="11265" width="5.125" style="51" customWidth="1"/>
+    <col min="11266" max="11266" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="9.125" style="51" customWidth="1"/>
+    <col min="11270" max="11270" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="29" style="51" customWidth="1"/>
+    <col min="11273" max="11273" width="26.75" style="51" customWidth="1"/>
+    <col min="11274" max="11274" width="27.625" style="51" customWidth="1"/>
+    <col min="11275" max="11520" width="8" style="51"/>
+    <col min="11521" max="11521" width="5.125" style="51" customWidth="1"/>
+    <col min="11522" max="11522" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="9.125" style="51" customWidth="1"/>
+    <col min="11526" max="11526" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="29" style="51" customWidth="1"/>
+    <col min="11529" max="11529" width="26.75" style="51" customWidth="1"/>
+    <col min="11530" max="11530" width="27.625" style="51" customWidth="1"/>
+    <col min="11531" max="11776" width="8" style="51"/>
+    <col min="11777" max="11777" width="5.125" style="51" customWidth="1"/>
+    <col min="11778" max="11778" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="9.125" style="51" customWidth="1"/>
+    <col min="11782" max="11782" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="29" style="51" customWidth="1"/>
+    <col min="11785" max="11785" width="26.75" style="51" customWidth="1"/>
+    <col min="11786" max="11786" width="27.625" style="51" customWidth="1"/>
+    <col min="11787" max="12032" width="8" style="51"/>
+    <col min="12033" max="12033" width="5.125" style="51" customWidth="1"/>
+    <col min="12034" max="12034" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="9.125" style="51" customWidth="1"/>
+    <col min="12038" max="12038" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="29" style="51" customWidth="1"/>
+    <col min="12041" max="12041" width="26.75" style="51" customWidth="1"/>
+    <col min="12042" max="12042" width="27.625" style="51" customWidth="1"/>
+    <col min="12043" max="12288" width="8" style="51"/>
+    <col min="12289" max="12289" width="5.125" style="51" customWidth="1"/>
+    <col min="12290" max="12290" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="9.125" style="51" customWidth="1"/>
+    <col min="12294" max="12294" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="29" style="51" customWidth="1"/>
+    <col min="12297" max="12297" width="26.75" style="51" customWidth="1"/>
+    <col min="12298" max="12298" width="27.625" style="51" customWidth="1"/>
+    <col min="12299" max="12544" width="8" style="51"/>
+    <col min="12545" max="12545" width="5.125" style="51" customWidth="1"/>
+    <col min="12546" max="12546" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="9.125" style="51" customWidth="1"/>
+    <col min="12550" max="12550" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="29" style="51" customWidth="1"/>
+    <col min="12553" max="12553" width="26.75" style="51" customWidth="1"/>
+    <col min="12554" max="12554" width="27.625" style="51" customWidth="1"/>
+    <col min="12555" max="12800" width="8" style="51"/>
+    <col min="12801" max="12801" width="5.125" style="51" customWidth="1"/>
+    <col min="12802" max="12802" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="9.125" style="51" customWidth="1"/>
+    <col min="12806" max="12806" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="29" style="51" customWidth="1"/>
+    <col min="12809" max="12809" width="26.75" style="51" customWidth="1"/>
+    <col min="12810" max="12810" width="27.625" style="51" customWidth="1"/>
+    <col min="12811" max="13056" width="8" style="51"/>
+    <col min="13057" max="13057" width="5.125" style="51" customWidth="1"/>
+    <col min="13058" max="13058" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="9.125" style="51" customWidth="1"/>
+    <col min="13062" max="13062" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="29" style="51" customWidth="1"/>
+    <col min="13065" max="13065" width="26.75" style="51" customWidth="1"/>
+    <col min="13066" max="13066" width="27.625" style="51" customWidth="1"/>
+    <col min="13067" max="13312" width="8" style="51"/>
+    <col min="13313" max="13313" width="5.125" style="51" customWidth="1"/>
+    <col min="13314" max="13314" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="9.125" style="51" customWidth="1"/>
+    <col min="13318" max="13318" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="29" style="51" customWidth="1"/>
+    <col min="13321" max="13321" width="26.75" style="51" customWidth="1"/>
+    <col min="13322" max="13322" width="27.625" style="51" customWidth="1"/>
+    <col min="13323" max="13568" width="8" style="51"/>
+    <col min="13569" max="13569" width="5.125" style="51" customWidth="1"/>
+    <col min="13570" max="13570" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="9.125" style="51" customWidth="1"/>
+    <col min="13574" max="13574" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="29" style="51" customWidth="1"/>
+    <col min="13577" max="13577" width="26.75" style="51" customWidth="1"/>
+    <col min="13578" max="13578" width="27.625" style="51" customWidth="1"/>
+    <col min="13579" max="13824" width="8" style="51"/>
+    <col min="13825" max="13825" width="5.125" style="51" customWidth="1"/>
+    <col min="13826" max="13826" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="9.125" style="51" customWidth="1"/>
+    <col min="13830" max="13830" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="29" style="51" customWidth="1"/>
+    <col min="13833" max="13833" width="26.75" style="51" customWidth="1"/>
+    <col min="13834" max="13834" width="27.625" style="51" customWidth="1"/>
+    <col min="13835" max="14080" width="8" style="51"/>
+    <col min="14081" max="14081" width="5.125" style="51" customWidth="1"/>
+    <col min="14082" max="14082" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="9.125" style="51" customWidth="1"/>
+    <col min="14086" max="14086" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="29" style="51" customWidth="1"/>
+    <col min="14089" max="14089" width="26.75" style="51" customWidth="1"/>
+    <col min="14090" max="14090" width="27.625" style="51" customWidth="1"/>
+    <col min="14091" max="14336" width="8" style="51"/>
+    <col min="14337" max="14337" width="5.125" style="51" customWidth="1"/>
+    <col min="14338" max="14338" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="9.125" style="51" customWidth="1"/>
+    <col min="14342" max="14342" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="29" style="51" customWidth="1"/>
+    <col min="14345" max="14345" width="26.75" style="51" customWidth="1"/>
+    <col min="14346" max="14346" width="27.625" style="51" customWidth="1"/>
+    <col min="14347" max="14592" width="8" style="51"/>
+    <col min="14593" max="14593" width="5.125" style="51" customWidth="1"/>
+    <col min="14594" max="14594" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="9.125" style="51" customWidth="1"/>
+    <col min="14598" max="14598" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="29" style="51" customWidth="1"/>
+    <col min="14601" max="14601" width="26.75" style="51" customWidth="1"/>
+    <col min="14602" max="14602" width="27.625" style="51" customWidth="1"/>
+    <col min="14603" max="14848" width="8" style="51"/>
+    <col min="14849" max="14849" width="5.125" style="51" customWidth="1"/>
+    <col min="14850" max="14850" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="9.125" style="51" customWidth="1"/>
+    <col min="14854" max="14854" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="29" style="51" customWidth="1"/>
+    <col min="14857" max="14857" width="26.75" style="51" customWidth="1"/>
+    <col min="14858" max="14858" width="27.625" style="51" customWidth="1"/>
+    <col min="14859" max="15104" width="8" style="51"/>
+    <col min="15105" max="15105" width="5.125" style="51" customWidth="1"/>
+    <col min="15106" max="15106" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="9.125" style="51" customWidth="1"/>
+    <col min="15110" max="15110" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="29" style="51" customWidth="1"/>
+    <col min="15113" max="15113" width="26.75" style="51" customWidth="1"/>
+    <col min="15114" max="15114" width="27.625" style="51" customWidth="1"/>
+    <col min="15115" max="15360" width="8" style="51"/>
+    <col min="15361" max="15361" width="5.125" style="51" customWidth="1"/>
+    <col min="15362" max="15362" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="9.125" style="51" customWidth="1"/>
+    <col min="15366" max="15366" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="29" style="51" customWidth="1"/>
+    <col min="15369" max="15369" width="26.75" style="51" customWidth="1"/>
+    <col min="15370" max="15370" width="27.625" style="51" customWidth="1"/>
+    <col min="15371" max="15616" width="8" style="51"/>
+    <col min="15617" max="15617" width="5.125" style="51" customWidth="1"/>
+    <col min="15618" max="15618" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="9.125" style="51" customWidth="1"/>
+    <col min="15622" max="15622" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="29" style="51" customWidth="1"/>
+    <col min="15625" max="15625" width="26.75" style="51" customWidth="1"/>
+    <col min="15626" max="15626" width="27.625" style="51" customWidth="1"/>
+    <col min="15627" max="15872" width="8" style="51"/>
+    <col min="15873" max="15873" width="5.125" style="51" customWidth="1"/>
+    <col min="15874" max="15874" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="9.125" style="51" customWidth="1"/>
+    <col min="15878" max="15878" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="29" style="51" customWidth="1"/>
+    <col min="15881" max="15881" width="26.75" style="51" customWidth="1"/>
+    <col min="15882" max="15882" width="27.625" style="51" customWidth="1"/>
+    <col min="15883" max="16128" width="8" style="51"/>
+    <col min="16129" max="16129" width="5.125" style="51" customWidth="1"/>
+    <col min="16130" max="16130" width="8.25" style="51" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="15" style="51" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.625" style="51" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="9.125" style="51" customWidth="1"/>
+    <col min="16134" max="16134" width="6.75" style="51" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="10.125" style="51" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="29" style="51" customWidth="1"/>
+    <col min="16137" max="16137" width="26.75" style="51" customWidth="1"/>
+    <col min="16138" max="16138" width="27.625" style="51" customWidth="1"/>
+    <col min="16139" max="16384" width="8" style="51"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" s="43" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="J10" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24" x14ac:dyDescent="0.15">
+      <c r="A12" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="A22" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="A25" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="A28" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="F29" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="H29" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="45" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="A32" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="H32" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="44">
+        <v>14.5</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="I33" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="J33" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="A34" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="J34" s="50" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="45" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>428</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="I35" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="J35" s="50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="H37" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="J37" s="50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>441</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="J38" s="50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="A39" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>438</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="H39" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="I39" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="J39" s="50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="45" t="s">
+        <v>456</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>440</v>
+      </c>
+      <c r="H40" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>460</v>
+      </c>
+      <c r="J40" s="50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="57"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="52"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="52"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B44" s="52"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B45" s="52"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B46" s="52"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B47" s="52"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B48" s="52"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="52"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" s="52"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" s="52"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" s="52"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" s="52"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B55" s="52"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" s="52"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B57" s="52"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B58" s="52"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B59" s="52"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B60" s="52"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" s="52"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B62" s="52"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="52"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B64" s="52"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B65" s="52"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" s="52"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.48" right="0.41" top="0.36" bottom="0.45" header="0.33" footer="0.39"/>
+  <pageSetup paperSize="8" scale="65" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>